--- a/Panel_Data.xlsx
+++ b/Panel_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\DAM\oaf\2.- Areas\Servicio social 2023\PruebaProgramación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD6D547-D0C9-4765-A79D-679472BF9A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF71F19F-A973-4D40-A804-7E6E74F21812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="702" xr2:uid="{E77A278E-F001-4025-AB19-18B80FD7BD6C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="702" activeTab="1" xr2:uid="{E77A278E-F001-4025-AB19-18B80FD7BD6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="38" r:id="rId1"/>
@@ -747,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806B2BF2-2D91-4AD5-A719-2779339D09F4}">
   <dimension ref="A1:M1765"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -756,7 +756,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>111</v>
@@ -73128,7 +73128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B20D59B-1A9C-4EB9-9A13-28B65506AAC4}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Panel_Data.xlsx
+++ b/Panel_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\DAM\oaf\2.- Areas\Servicio social 2023\PruebaProgramación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF71F19F-A973-4D40-A804-7E6E74F21812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D568FC36-2A20-4C4B-9287-3088CE9D2754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="702" activeTab="1" xr2:uid="{E77A278E-F001-4025-AB19-18B80FD7BD6C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="702" xr2:uid="{E77A278E-F001-4025-AB19-18B80FD7BD6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="38" r:id="rId1"/>
@@ -747,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806B2BF2-2D91-4AD5-A719-2779339D09F4}">
   <dimension ref="A1:M1765"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -73128,7 +73128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B20D59B-1A9C-4EB9-9A13-28B65506AAC4}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
